--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -132,85 +132,85 @@
     <t>http://www.irinnews.org/report/95111/burundi-birth-registration-campaign-targets-tens-of-thousands</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>60-69%</t>
+  </si>
+  <si>
+    <t>Civil Registration and Vital Statistics Assessment Study in Africa</t>
+  </si>
+  <si>
+    <t>http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Over 90%</t>
+  </si>
+  <si>
+    <t>African Center for Statistics Regional Guidelines on Civil Registration</t>
+  </si>
+  <si>
+    <t>http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>50-59%</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>NO INFO FOUND</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Coverage expanding</t>
+  </si>
+  <si>
+    <t>UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t>http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>http://www.ins.ci/EDS%20&amp;%20MICS/EDS-MICS2011-2012_Rapport_Final.pdf</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>60-69%</t>
-  </si>
-  <si>
-    <t>Civil Registration and Vital Statistics Assessment Study in Africa</t>
-  </si>
-  <si>
-    <t>http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Over 90%</t>
-  </si>
-  <si>
-    <t>African Center for Statistics Regional Guidelines on Civil Registration</t>
-  </si>
-  <si>
-    <t>http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>50-59%</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>NO INFO FOUND</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Coverage expanding</t>
-  </si>
-  <si>
-    <t>UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t>http://www.refworld.org/pdfid/51b823064.pdf</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
   </si>
   <si>
     <t>DJ</t>
@@ -508,7 +508,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>Complete registration</t>
@@ -712,7 +712,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1276,56 +1276,56 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1336,16 +1336,14 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -1356,31 +1354,33 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12"/>
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -1458,10 +1458,10 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1478,10 +1478,10 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1569,13 +1569,13 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1789,13 +1789,13 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -1872,10 +1872,10 @@
         <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -1892,10 +1892,10 @@
         <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -1932,10 +1932,10 @@
         <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1969,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -2130,7 +2130,7 @@
         <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>204</v>
@@ -2167,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Innoceti Research Centre Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.childinfo.org/files/birthregistration_Digestenglish.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,6 +69,39 @@
     <t xml:space="preserve">http://allafrica.com/stories/201504081437.html</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demographic and Health Survey Programme report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dhsprogram.com/pubs/pdf/FR270/FR270.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration Centre for Development (CRC4D) Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CC0QFjACahUKEwjLi8GwlaHHAhVMdD4KHcAnDaA&amp;url=http%3A%2F%2Fecastats.uneca.org%2Facsweb%2FPortals%2F0%2FACSVirtualSpaces%2FSupplementary%2520Assessment%2520of%2520CR%2520Eng%2520-%252051622.doc&amp;ei=0_zJVYvWFszo-QHAz7SACg&amp;usg=AFQjCNFhxXIYiY-7me-YlV_UjqSUPnwLQg&amp;sig2=wbY4kJvl9E2V2W7FApckpA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -81,37 +132,94 @@
     <t xml:space="preserve">http://www.irinnews.org/report/95111/burundi-birth-registration-campaign-targets-tens-of-thousands</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demographic and Health Survey Programme report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dhsprogram.com/pubs/pdf/FR270/FR270.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration Centre for Development (CRC4D) Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CC0QFjACahUKEwjLi8GwlaHHAhVMdD4KHcAnDaA&amp;url=http%3A%2F%2Fecastats.uneca.org%2Facsweb%2FPortals%2F0%2FACSVirtualSpaces%2FSupplementary%2520Assessment%2520of%2520CR%2520Eng%2520-%252051622.doc&amp;ei=0_zJVYvWFszo-QHAz7SACg&amp;usg=AFQjCNFhxXIYiY-7me-YlV_UjqSUPnwLQg&amp;sig2=wbY4kJvl9E2V2W7FApckpA</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration and Vital Statistics Assessment Study in Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Center for Statistics Regional Guidelines on Civil Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO INFO FOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage expanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ins.ci/EDS%20&amp;%20MICS/EDS-MICS2011-2012_Rapport_Final.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -126,90 +234,6 @@
     <t xml:space="preserve">http://ponabana.com/an-identity-for-every-child/?lang=en </t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration and Vital Statistics Assessment Study in Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ins.ci/EDS%20&amp;%20MICS/EDS-MICS2011-2012_Rapport_Final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Center for Statistics Regional Guidelines on Civil Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Innoceti Research Centre Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.childinfo.org/files/birthregistration_Digestenglish.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -219,13 +243,10 @@
     <t xml:space="preserve">70-90%</t>
   </si>
   <si>
-    <t xml:space="preserve">EH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO INFO FOUND</t>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
   </si>
   <si>
     <t xml:space="preserve">ER</t>
@@ -256,24 +277,24 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia Bureau of Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gbos.gov.gm/demography.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia Bureau of Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.gbos.gov.gm/demography.php</t>
-  </si>
-  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
@@ -286,12 +307,6 @@
     <t xml:space="preserve">https://www.crc4d.com/downloads/2014-03-towards-universal-birth-registration-guinea.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
     <t xml:space="preserve">GW</t>
   </si>
   <si>
@@ -319,19 +334,16 @@
     <t xml:space="preserve">http://www.knbs.or.ke/index.php?option=com_phocadownload&amp;view=category&amp;id=109:population-and-housing-census-2009&amp;Itemid=599</t>
   </si>
   <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage expanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unstats.un.org/unsd/demographic/.../Session10-LESOTHO.ppt</t>
   </si>
   <si>
     <t xml:space="preserve">LR</t>
@@ -349,18 +361,6 @@
     <t xml:space="preserve">https://plan-international.org/where-we-work/africa/liberia/what-we-do/our-successes/universal-birth-registration-bears-fruit-in-liberia-birth-certificates-now-being-issued/</t>
   </si>
   <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://unstats.un.org/unsd/demographic/.../Session10-LESOTHO.ppt</t>
-  </si>
-  <si>
     <t xml:space="preserve">LY</t>
   </si>
   <si>
@@ -373,6 +373,63 @@
     <t xml:space="preserve">http://www.landinfo.no/asset/3024/1/3024_1.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://instat.mg/essai/wp-content/uploads/2014/12/eds_2008-2009.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Society of Tropical Medicine and Hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://msf.openrepository.com/msf/bitstream/10144/141431/1/110419_Zachariah_Vital-Registration-in-Rural-Africa_Trans-R-Soc-Trop-Med-Hyg-in%20press.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage in expansion - no specific number found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations High Commissioner for Human Rights report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CDIQFjACahUKEwivhtH-oqjHAhXMXhoKHf6xA1c&amp;url=http%3A%2F%2Fwww.ohchr.org%2FEN%2FHRBodies%2FHRC%2FRegularSessions%2FSession27%2FDocuments%2FA_HRC_27_22_ENG.doc&amp;ei=n7bNVe-6Asy9af7jjrgF&amp;usg=AFQjCNHaqszh_Dv36xtO9Egmgb-DlrqL-w&amp;sig2=PGUifrMZkGKlWmwvXhYHmA&amp;bvm=bv.99804247,d.bGg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System reliable, but coverage vary from rural to urban. breakdown available by region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania data portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mauritania.africadata.org/fr/Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
     <t xml:space="preserve">MA</t>
   </si>
   <si>
@@ -388,63 +445,6 @@
     <t xml:space="preserve">http://www.yabiladi.com/article-societe-2462.html</t>
   </si>
   <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://instat.mg/essai/wp-content/uploads/2014/12/eds_2008-2009.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage in expansion - no specific number found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations High Commissioner for Human Rights report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CDIQFjACahUKEwivhtH-oqjHAhXMXhoKHf6xA1c&amp;url=http%3A%2F%2Fwww.ohchr.org%2FEN%2FHRBodies%2FHRC%2FRegularSessions%2FSession27%2FDocuments%2FA_HRC_27_22_ENG.doc&amp;ei=n7bNVe-6Asy9af7jjrgF&amp;usg=AFQjCNHaqszh_Dv36xtO9Egmgb-DlrqL-w&amp;sig2=PGUifrMZkGKlWmwvXhYHmA&amp;bvm=bv.99804247,d.bGg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System reliable, but coverage vary from rural to urban. breakdown available by region.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania data portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mauritania.africadata.org/fr/Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal Society of Tropical Medicine and Hygiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://msf.openrepository.com/msf/bitstream/10144/141431/1/110419_Zachariah_Vital-Registration-in-Rural-Africa_Trans-R-Soc-Trop-Med-Hyg-in%20press.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -505,12 +505,78 @@
     <t xml:space="preserve">http://www.statistics.gov.rw/survey-period/fourth-population-and-housing-census-2012</t>
   </si>
   <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agence Nationale de la Statistique et de la Demographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ansd.sn/index.php?option=com_rapports&amp;view=projet&amp;idp=40&amp;Itemid=411</t>
+  </si>
+  <si>
     <t xml:space="preserve">SC</t>
   </si>
   <si>
     <t xml:space="preserve">Seychelles</t>
   </si>
   <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crc4d.com/downloads/2014-04-establishing-21st-century-identity-management-sierra-Leone.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO INFORMATION FOUND EXCEPT UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.statssa.gov.za/?page_id=1856&amp;PPN=report-03-06-01&amp;SCH=3927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration and Vital Statistics report</t>
+  </si>
+  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
@@ -523,57 +589,6 @@
     <t xml:space="preserve">https://www.crc4d.com/downloads/2012-02-promoting-birth-registration-in-sudan.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crc4d.com/downloads/2014-04-establishing-21st-century-identity-management-sierra-Leone.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agence Nationale de la Statistique et de la Demographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ansd.sn/index.php?option=com_rapports&amp;view=projet&amp;idp=40&amp;Itemid=411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO INFORMATION FOUND EXCEPT UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration and Vital Statistics report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete registration</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZ</t>
   </si>
   <si>
@@ -589,10 +604,19 @@
     <t xml:space="preserve">http://www.gov.sz/index.php?option=com_content&amp;view=article&amp;id=652&amp;Itemid=542</t>
   </si>
   <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreliable system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millicom News Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.millicom.com/media/millicom-news-features/birth-registration-in-tanzania/</t>
   </si>
   <si>
     <t xml:space="preserve">TG</t>
@@ -616,21 +640,6 @@
     <t xml:space="preserve">2sources: http://dialogueuroafricainmd.net/web/uploads/activity/civil_registry/newsletter/Tunisia_FR.pdf and http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRMC3/birth_registration_rev_en.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unreliable system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millicom News Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.millicom.com/media/millicom-news-features/birth-registration-in-tanzania/</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG</t>
   </si>
   <si>
@@ -640,19 +649,10 @@
     <t xml:space="preserve">ADC Challenge (original excel file)</t>
   </si>
   <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.statssa.gov.za/?page_id=1856&amp;PPN=report-03-06-01&amp;SCH=3927</t>
+    <t xml:space="preserve">EH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1180,440 +1180,440 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13"/>
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E15"/>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16"/>
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17"/>
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18"/>
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -1630,7 +1630,7 @@
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>103</v>
@@ -1650,30 +1650,30 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>113</v>
@@ -1690,10 +1690,10 @@
         <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>117</v>
@@ -1710,110 +1710,110 @@
         <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
         <v>121</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
         <v>124</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>130</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
         <v>132</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>135</v>
-      </c>
-      <c r="F33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
         <v>137</v>
       </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
         <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
         <v>141</v>
@@ -1830,13 +1830,13 @@
         <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
         <v>146</v>
@@ -1850,7 +1850,7 @@
         <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>149</v>
@@ -1870,16 +1870,16 @@
         <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -1890,16 +1890,16 @@
         <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -1910,7 +1910,7 @@
         <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>160</v>
@@ -1930,151 +1930,151 @@
         <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
         <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>174</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
         <v>175</v>
-      </c>
-      <c r="F44" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
         <v>177</v>
       </c>
-      <c r="B45" t="s">
-        <v>178</v>
-      </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
         <v>180</v>
-      </c>
-      <c r="B46" t="s">
-        <v>181</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
         <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
         <v>190</v>
@@ -2088,112 +2088,112 @@
         <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49"/>
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>194</v>
+      </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" t="s">
-        <v>211</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E54"/>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -2204,7 +2204,7 @@
         <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>215</v>
@@ -2224,13 +2224,13 @@
         <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
         <v>221</v>

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Innoceti Research Centre Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.childinfo.org/files/birthregistration_Digestenglish.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,6 +69,39 @@
     <t xml:space="preserve">http://allafrica.com/stories/201504081437.html</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demographic and Health Survey Programme report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dhsprogram.com/pubs/pdf/FR270/FR270.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration Centre for Development (CRC4D) Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CC0QFjACahUKEwjLi8GwlaHHAhVMdD4KHcAnDaA&amp;url=http%3A%2F%2Fecastats.uneca.org%2Facsweb%2FPortals%2F0%2FACSVirtualSpaces%2FSupplementary%2520Assessment%2520of%2520CR%2520Eng%2520-%252051622.doc&amp;ei=0_zJVYvWFszo-QHAz7SACg&amp;usg=AFQjCNFhxXIYiY-7me-YlV_UjqSUPnwLQg&amp;sig2=wbY4kJvl9E2V2W7FApckpA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -81,37 +132,94 @@
     <t xml:space="preserve">http://www.irinnews.org/report/95111/burundi-birth-registration-campaign-targets-tens-of-thousands</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demographic and Health Survey Programme report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dhsprogram.com/pubs/pdf/FR270/FR270.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration Centre for Development (CRC4D) Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CC0QFjACahUKEwjLi8GwlaHHAhVMdD4KHcAnDaA&amp;url=http%3A%2F%2Fecastats.uneca.org%2Facsweb%2FPortals%2F0%2FACSVirtualSpaces%2FSupplementary%2520Assessment%2520of%2520CR%2520Eng%2520-%252051622.doc&amp;ei=0_zJVYvWFszo-QHAz7SACg&amp;usg=AFQjCNFhxXIYiY-7me-YlV_UjqSUPnwLQg&amp;sig2=wbY4kJvl9E2V2W7FApckpA</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ins.ci/EDS%20&amp;%20MICS/EDS-MICS2011-2012_Rapport_Final.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration and Vital Statistics Assessment Study in Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Center for Statistics Regional Guidelines on Civil Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO INFO FOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage expanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -126,90 +234,6 @@
     <t xml:space="preserve">http://ponabana.com/an-identity-for-every-child/?lang=en </t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration and Vital Statistics Assessment Study in Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ins.ci/EDS%20&amp;%20MICS/EDS-MICS2011-2012_Rapport_Final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Center for Statistics Regional Guidelines on Civil Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Innoceti Research Centre Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.childinfo.org/files/birthregistration_Digestenglish.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -219,13 +243,10 @@
     <t xml:space="preserve">70-90%</t>
   </si>
   <si>
-    <t xml:space="preserve">EH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO INFO FOUND</t>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
   </si>
   <si>
     <t xml:space="preserve">ER</t>
@@ -256,24 +277,24 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia Bureau of Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gbos.gov.gm/demography.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia Bureau of Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.gbos.gov.gm/demography.php</t>
-  </si>
-  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
@@ -286,12 +307,6 @@
     <t xml:space="preserve">https://www.crc4d.com/downloads/2014-03-towards-universal-birth-registration-guinea.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
     <t xml:space="preserve">GW</t>
   </si>
   <si>
@@ -319,19 +334,16 @@
     <t xml:space="preserve">http://www.knbs.or.ke/index.php?option=com_phocadownload&amp;view=category&amp;id=109:population-and-housing-census-2009&amp;Itemid=599</t>
   </si>
   <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage expanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unstats.un.org/unsd/demographic/.../Session10-LESOTHO.ppt</t>
   </si>
   <si>
     <t xml:space="preserve">LR</t>
@@ -349,18 +361,6 @@
     <t xml:space="preserve">https://plan-international.org/where-we-work/africa/liberia/what-we-do/our-successes/universal-birth-registration-bears-fruit-in-liberia-birth-certificates-now-being-issued/</t>
   </si>
   <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://unstats.un.org/unsd/demographic/.../Session10-LESOTHO.ppt</t>
-  </si>
-  <si>
     <t xml:space="preserve">LY</t>
   </si>
   <si>
@@ -373,6 +373,63 @@
     <t xml:space="preserve">http://www.landinfo.no/asset/3024/1/3024_1.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://instat.mg/essai/wp-content/uploads/2014/12/eds_2008-2009.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Society of Tropical Medicine and Hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://msf.openrepository.com/msf/bitstream/10144/141431/1/110419_Zachariah_Vital-Registration-in-Rural-Africa_Trans-R-Soc-Trop-Med-Hyg-in%20press.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage in expansion - no specific number found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations High Commissioner for Human Rights report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CDIQFjACahUKEwivhtH-oqjHAhXMXhoKHf6xA1c&amp;url=http%3A%2F%2Fwww.ohchr.org%2FEN%2FHRBodies%2FHRC%2FRegularSessions%2FSession27%2FDocuments%2FA_HRC_27_22_ENG.doc&amp;ei=n7bNVe-6Asy9af7jjrgF&amp;usg=AFQjCNHaqszh_Dv36xtO9Egmgb-DlrqL-w&amp;sig2=PGUifrMZkGKlWmwvXhYHmA&amp;bvm=bv.99804247,d.bGg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System reliable, but coverage vary from rural to urban. breakdown available by region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania data portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mauritania.africadata.org/fr/Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
     <t xml:space="preserve">MA</t>
   </si>
   <si>
@@ -388,63 +445,6 @@
     <t xml:space="preserve">http://www.yabiladi.com/article-societe-2462.html</t>
   </si>
   <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://instat.mg/essai/wp-content/uploads/2014/12/eds_2008-2009.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage in expansion - no specific number found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations High Commissioner for Human Rights report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.co.uk/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=0CDIQFjACahUKEwivhtH-oqjHAhXMXhoKHf6xA1c&amp;url=http%3A%2F%2Fwww.ohchr.org%2FEN%2FHRBodies%2FHRC%2FRegularSessions%2FSession27%2FDocuments%2FA_HRC_27_22_ENG.doc&amp;ei=n7bNVe-6Asy9af7jjrgF&amp;usg=AFQjCNHaqszh_Dv36xtO9Egmgb-DlrqL-w&amp;sig2=PGUifrMZkGKlWmwvXhYHmA&amp;bvm=bv.99804247,d.bGg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System reliable, but coverage vary from rural to urban. breakdown available by region.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania data portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mauritania.africadata.org/fr/Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal Society of Tropical Medicine and Hygiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://msf.openrepository.com/msf/bitstream/10144/141431/1/110419_Zachariah_Vital-Registration-in-Rural-Africa_Trans-R-Soc-Trop-Med-Hyg-in%20press.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -505,12 +505,78 @@
     <t xml:space="preserve">http://www.statistics.gov.rw/survey-period/fourth-population-and-housing-census-2012</t>
   </si>
   <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agence Nationale de la Statistique et de la Demographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ansd.sn/index.php?option=com_rapports&amp;view=projet&amp;idp=40&amp;Itemid=411</t>
+  </si>
+  <si>
     <t xml:space="preserve">SC</t>
   </si>
   <si>
     <t xml:space="preserve">Seychelles</t>
   </si>
   <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crc4d.com/downloads/2014-04-establishing-21st-century-identity-management-sierra-Leone.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO INFORMATION FOUND EXCEPT UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.statssa.gov.za/?page_id=1856&amp;PPN=report-03-06-01&amp;SCH=3927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration and Vital Statistics report</t>
+  </si>
+  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
@@ -523,57 +589,6 @@
     <t xml:space="preserve">https://www.crc4d.com/downloads/2012-02-promoting-birth-registration-in-sudan.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crc4d.com/downloads/2014-04-establishing-21st-century-identity-management-sierra-Leone.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agence Nationale de la Statistique et de la Demographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ansd.sn/index.php?option=com_rapports&amp;view=projet&amp;idp=40&amp;Itemid=411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO INFORMATION FOUND EXCEPT UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration and Vital Statistics report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete registration</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZ</t>
   </si>
   <si>
@@ -589,10 +604,19 @@
     <t xml:space="preserve">http://www.gov.sz/index.php?option=com_content&amp;view=article&amp;id=652&amp;Itemid=542</t>
   </si>
   <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreliable system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millicom News Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.millicom.com/media/millicom-news-features/birth-registration-in-tanzania/</t>
   </si>
   <si>
     <t xml:space="preserve">TG</t>
@@ -616,21 +640,6 @@
     <t xml:space="preserve">2sources: http://dialogueuroafricainmd.net/web/uploads/activity/civil_registry/newsletter/Tunisia_FR.pdf and http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRMC3/birth_registration_rev_en.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unreliable system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millicom News Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.millicom.com/media/millicom-news-features/birth-registration-in-tanzania/</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG</t>
   </si>
   <si>
@@ -640,19 +649,10 @@
     <t xml:space="preserve">ADC Challenge (original excel file)</t>
   </si>
   <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.statssa.gov.za/?page_id=1856&amp;PPN=report-03-06-01&amp;SCH=3927</t>
+    <t xml:space="preserve">EH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1180,113 +1180,113 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -1300,320 +1300,320 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13"/>
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E15"/>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16"/>
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17"/>
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18"/>
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -1630,7 +1630,7 @@
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>103</v>
@@ -1650,30 +1650,30 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>113</v>
@@ -1690,10 +1690,10 @@
         <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>117</v>
@@ -1710,110 +1710,110 @@
         <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
         <v>121</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
         <v>124</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>130</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
         <v>132</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>135</v>
-      </c>
-      <c r="F33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
         <v>137</v>
       </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
         <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
         <v>141</v>
@@ -1830,13 +1830,13 @@
         <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
         <v>146</v>
@@ -1850,7 +1850,7 @@
         <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>149</v>
@@ -1870,16 +1870,16 @@
         <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -1890,16 +1890,16 @@
         <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -1910,7 +1910,7 @@
         <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>160</v>
@@ -1930,151 +1930,151 @@
         <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
         <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>174</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
         <v>175</v>
-      </c>
-      <c r="F44" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
         <v>177</v>
       </c>
-      <c r="B45" t="s">
-        <v>178</v>
-      </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
         <v>180</v>
-      </c>
-      <c r="B46" t="s">
-        <v>181</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
         <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
         <v>190</v>
@@ -2088,112 +2088,112 @@
         <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49"/>
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>194</v>
+      </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" t="s">
-        <v>211</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E54"/>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -2204,7 +2204,7 @@
         <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>215</v>
@@ -2224,13 +2224,13 @@
         <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
         <v>221</v>

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">0.97</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">5 million children without birth certificate</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Benin</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
+    <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">0.6</t>
@@ -132,85 +132,85 @@
     <t xml:space="preserve">http://www.irinnews.org/report/95111/burundi-birth-registration-campaign-targets-tens-of-thousands</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Registration and Vital Statistics Assessment Study in Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Center for Statistics Regional Guidelines on Civil Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO INFO FOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage expanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.ins.ci/EDS%20&amp;%20MICS/EDS-MICS2011-2012_Rapport_Final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Registration and Vital Statistics Assessment Study in Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Center for Statistics Regional Guidelines on Civil Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.uneca.org/sites/default/files/uploaded-documents/Statistics/CRVS/improving_national_civil_registration_systems_-_operational_guidelines_en.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO INFO FOUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage expanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.cnsee.org/index.php?option=com_content&amp;view=article&amp;id=184:edsc-ii&amp;catid=34:edsc-2&amp;Itemid=61</t>
   </si>
   <si>
     <t xml:space="preserve">DJ</t>
@@ -685,37 +685,37 @@
     <t xml:space="preserve">Name: civil-reg-births</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The percentage of births reported in vital statistics where the data is derived from the Civil Registration system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: UNDESA Population and Vital Statistics Report. Data as available at Jan 2014; UNSD Coverage of Birth and Death Registration.</t>
+    <t xml:space="preserve">Description: The percentage of births reported in vital statistics where the data is derived from the Civil Registration system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1068,15 +1068,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1090,31 +1094,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>233</v>
       </c>
     </row>
@@ -1280,56 +1279,56 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1340,16 +1339,14 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -1360,31 +1357,33 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12"/>
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -1462,10 +1461,10 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1482,10 +1481,10 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1573,13 +1572,13 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1793,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -1876,10 +1875,10 @@
         <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -1896,10 +1895,10 @@
         <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -1936,10 +1935,10 @@
         <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1973,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -2134,7 +2133,7 @@
         <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>204</v>
@@ -2171,7 +2170,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
@@ -2193,7 +2192,7 @@
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 74</t>
+    <t xml:space="preserve">Source: 75</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 75</t>
+    <t xml:space="preserve">Source: 77</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 74</t>
+    <t xml:space="preserve">Source: 77</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/civil-reg-births/civil-reg-births.xlsx
+++ b/user-data/civil-reg-births/civil-reg-births.xlsx
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 77</t>
+    <t xml:space="preserve">Source: 76</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
